--- a/input.xlsx
+++ b/input.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\eBay-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6982882-F755-4FA6-BD20-008A2E37352B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B26DD-0BF8-4C7A-80D3-5371AAF6E3AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2D7AC40-1CE6-4605-8474-EC1ADC9E1B24}"/>
+    <workbookView xWindow="2004" yWindow="420" windowWidth="17280" windowHeight="8964" xr2:uid="{D2D7AC40-1CE6-4605-8474-EC1ADC9E1B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>item_id</t>
   </si>
@@ -51,9 +52,6 @@
     <t>a02</t>
   </si>
   <si>
-    <t>b01</t>
-  </si>
-  <si>
     <t>b02</t>
   </si>
   <si>
@@ -66,9 +64,6 @@
     <t>avatar movie blueray</t>
   </si>
   <si>
-    <t>2012 chevy cruze manual</t>
-  </si>
-  <si>
     <t>google pixel 2 xl</t>
   </si>
   <si>
@@ -81,7 +76,7 @@
     <t>super nintendo game console</t>
   </si>
   <si>
-    <t>KitchenAid KSM150PSTG Artisan Series 5 qt</t>
+    <t>KitchenAid Mixer</t>
   </si>
 </sst>
 </file>
@@ -433,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF47226-ABC0-4E5B-9511-9B45D2466CEA}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -467,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>139971</v>
@@ -478,7 +473,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -492,10 +487,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>2500</v>
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -503,7 +501,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -511,18 +512,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
